--- a/Assets/map.xlsx
+++ b/Assets/map.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GE2A23\AI\sanadesu\PackMan\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GE2A23\AI\PacMan\PackMan-\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4600663E-48C1-4056-B1C7-3092D9C12982}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F15901-F20F-45CB-B279-9B8458A4C959}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7896" xr2:uid="{977A94A0-DDCA-48F0-8B28-478147DF5663}"/>
   </bookViews>
@@ -386,7 +386,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.3984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -479,7 +479,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -523,19 +523,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -562,7 +562,7 @@
         <v>1</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -585,28 +585,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -650,16 +650,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -671,28 +671,28 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -709,28 +709,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -768,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -801,13 +801,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -845,25 +845,25 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -872,10 +872,10 @@
         <v>1</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -925,22 +925,22 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -972,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -984,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1016,13 +1016,13 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1049,25 +1049,25 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -1093,22 +1093,22 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1143,13 +1143,13 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1179,16 +1179,16 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1217,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
